--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/BrokenMarkets/1CraftbetTable TennisDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/BrokenMarkets/1CraftbetTable TennisDataErrorMarketsList.xlsx
@@ -12,78 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>3737921  This game has no available Markets</t>
+    <t>3739851  This game has no available Markets</t>
   </si>
   <si>
-    <t>3737942  This game has no available Markets</t>
+    <t>3739862  This game has no available Markets</t>
   </si>
   <si>
-    <t>3737947  This game has no available Markets</t>
+    <t>3739863  This game has no available Markets</t>
   </si>
   <si>
-    <t>3737958  This game has no available Markets</t>
+    <t>3740927  This game has no available Markets</t>
   </si>
   <si>
-    <t>3737982  This game has no available Markets</t>
+    <t>3740966  This game has no available Markets</t>
   </si>
   <si>
-    <t>3737985  This game has no available Markets</t>
+    <t>3742471  This game has no available Markets</t>
   </si>
   <si>
-    <t>3738014  This game has no available Markets</t>
+    <t>This market works for Client  GameID = 3742406  MarketName = 1 Set Mart Ojamaa Winning Margin</t>
   </si>
   <si>
-    <t>3738018  This game has no available Markets</t>
+    <t>This market works for Client  GameID = 3742406  MarketName = 1 Set Vootele Vaher Winning Margin</t>
   </si>
   <si>
-    <t>3738022  This game has no available Markets</t>
+    <t>3740731  This game has no available Markets</t>
   </si>
   <si>
-    <t>3738035  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3736342  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3736352  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3736365  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3736380  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737902  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737905  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737917  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737928  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737969  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737979  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737915  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737930  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737961  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3737973  This game has no available Markets</t>
+    <t>3740733  This game has no available Markets</t>
   </si>
 </sst>
 </file>
@@ -128,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -187,76 +145,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
